--- a/Question_Set2/Software skills/Microsoft SQL Server.xlsx
+++ b/Question_Set2/Software skills/Microsoft SQL Server.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The networking team at your organization has already installed a Windows failover cluster and one node of SQL Server 2019. You have been asked to make it functional with high availability features. You have started installation from the provided media. Which option must you install to make it functional?   ', 'ques_type': 2, 'options': ['Enable high availability.', 'Add a failover cluster.', 'Add a node.', 'Install a standalone instance.'], 'score': 'Add a node.'}, {'title': "You are responsible for developing SQL code for customers' databases. You notice some duplicates in the customer table. The structure of the table with its initial two fields is shown below. You begin writing a SQL query to remove the duplicates. Now, you just need to add the last statement.Which of the following options will you use to complete the query?Initial two fields of the customer tableCREATE TABLE Customer(\n              customerID int PRIMARY KEY IDENTITY(1,1) NOT NULL,\n              customerName varchar(50) NOT NULL,\n              ...\n)\nYour incomplete queryWITH CustomerCTE\nAS\n(\n              SELECT\n               customerName\n              ,ROW_NUMBER() OVER(PARTITION BY customername ORDER BY customername ) SeqNum\n               FROM customer\n)\nDELETE FROM CustomerCTE _______________", 'ques_type': 2, 'options': [' WHERE SeqNum &amp;gt2', ' WHERE SeqNum &amp;gt1', ' WHERE SeqNum &amp;gt0', ' WHERE SeqNum &amp;gt=1'], 'score': 'WHERE SeqNum &amp;gt1'}, {'title': 'True or false: You can improve the performance of the SQL query below by adding the suggested index shown below when working with a large table. SQL QuerySELECT Name, Country\nFROM DBO.CUSTOMER \nWHERE Country=’USA’\n Suggested IndexCREATE NONCLUSTERED INDEX IX_Customer_Cty\nON DBO.CUSTOMER (Country)\nINCLUDE (Name)', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'A development team resource has mistakenly executed a truncate statement on an important table of the development database. No other activity was performed on the database except the truncate statement since the last full backup.  How can you restore this data in the shortest time?', 'ques_type': 2, 'options': ['Refresh from the production database.', 'Restore the most recent full backup.', 'Restore the more recent full and log backups.', 'Restore the most recent differential backup.'], 'score': 'Restore the most recent full backup.'}]</t>
+    <t>questions = [
+    {
+        "title": "The networking team at your organization has already installed a Windows failover cluster and one node of SQL Server 2019. You have been asked to make it functional with high availability features. You have started installation from the provided media. Which option must you install to make it functional?",
+        "ques_type": 2,
+        "options": [
+            "Enable high availability.",
+            "Add a failover cluster.",
+            "Add a node.",
+            "Install a standalone instance."
+        ],
+        "score": "Add a node."
+    },
+    {
+        "title": "You are responsible for developing SQL code for customers' databases. You notice some duplicates in the customer table. The structure of the table with its initial two fields is shown below. You begin writing a SQL query to remove the duplicates. Now, you just need to add the last statement.Which of the following options will you use to complete the query?Initial two fields of the customer tableCREATE TABLE Customer(\n              customerID int PRIMARY KEY IDENTITY(1,1) NOT NULL,\n              customerName varchar(50) NOT NULL,\n              ...\n)\nYour incomplete queryWITH CustomerCTE\nAS\n(\n              SELECT\n               customerName\n              ,ROW_NUMBER() OVER(PARTITION BY customername ORDER BY customername ) SeqNum\n               FROM customer\n)\nDELETE FROM CustomerCTE _______________",
+        "ques_type": 2,
+        "options": [
+            " WHERE SeqNum &amp;gt2",
+            " WHERE SeqNum &amp;gt1",
+            " WHERE SeqNum &amp;gt0",
+            " WHERE SeqNum &amp;gt=1"
+        ],
+        "score": "WHERE SeqNum &amp;gt1"
+    },
+    {
+        "title": "True or false: You can improve the performance of the SQL query below by adding the suggested index shown below when working with a large table. SQL QuerySELECT Name, Country\nFROM DBO.CUSTOMER \nWHERE Country=\u2019USA\u2019\n Suggested IndexCREATE NONCLUSTERED INDEX IX_Customer_Cty\nON DBO.CUSTOMER (Country)\nINCLUDE (Name)",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "A development team resource has mistakenly executed a truncate statement on an important table of the development database. No other activity was performed on the database except the truncate statement since the last full backup.  How can you restore this data in the shortest time?",
+        "ques_type": 2,
+        "options": [
+            "Refresh from the production database.",
+            "Restore the most recent full backup.",
+            "Restore the more recent full and log backups.",
+            "Restore the most recent differential backup."
+        ],
+        "score": "Restore the most recent full backup."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
